--- a/04_Final_Results/Data_and_Results.xlsx
+++ b/04_Final_Results/Data_and_Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madefrutos\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ticiasoft1es-my.sharepoint.com/personal/madefrutos_oesia_com/Documents/Escritorio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9705D2F6-3F64-4979-AD18-269667200840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="205" documentId="13_ncr:1_{9705D2F6-3F64-4979-AD18-269667200840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A97D384-A232-4A4C-8339-9C96880C443E}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{21F2CB15-BE14-4AA4-A4F6-10654CC7E7CF}"/>
+    <workbookView xWindow="3720" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{21F2CB15-BE14-4AA4-A4F6-10654CC7E7CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset Composition" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="51">
   <si>
     <t>REAL(real_test)</t>
   </si>
@@ -180,6 +180,18 @@
   <si>
     <t>TEST</t>
   </si>
+  <si>
+    <t>MIX_50(real_test)</t>
+  </si>
+  <si>
+    <t>MIX_50(msfs_test)</t>
+  </si>
+  <si>
+    <t>HYBRID DATASET 50%:</t>
+  </si>
+  <si>
+    <t>MIX_50</t>
+  </si>
 </sst>
 </file>
 
@@ -188,7 +200,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,8 +292,39 @@
       <name val="Palatino Linotype"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -360,18 +403,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2F5496"/>
+        <bgColor rgb="FF2F5496"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EAADB"/>
+        <bgColor rgb="FF8EAADB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor rgb="FFFFD966"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E2F3"/>
+        <bgColor rgb="FFD9E2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -625,6 +704,107 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -632,7 +812,7 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -690,23 +870,32 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="8" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="8" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="8" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="12" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="13" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="13" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="12" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -728,23 +917,20 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -764,14 +950,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -783,21 +962,80 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="16" fillId="20" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="16" fillId="20" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="16" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="5" fillId="16" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="16" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="15" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="15" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="16" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bueno" xfId="2" builtinId="26"/>
@@ -805,312 +1043,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="52">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
+  <dxfs count="214">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1194,8 +1194,1570 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC6EFCE"/>
+      <color rgb="FFFFC7CE"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1504,10 +3066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9991DAD5-C3D6-4294-8F76-C2DE7A512EC3}">
-  <dimension ref="B1:R35"/>
+  <dimension ref="B1:R46"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1519,49 +3081,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="16" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="64"/>
-      <c r="J1" s="65" t="s">
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="63"/>
+      <c r="J1" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="67"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="66"/>
     </row>
     <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:18" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="33"/>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="59"/>
+      <c r="D3" s="58"/>
       <c r="E3" s="35"/>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="61"/>
+      <c r="G3" s="60"/>
       <c r="H3" s="33"/>
       <c r="I3" s="33"/>
       <c r="J3" s="33"/>
-      <c r="K3" s="58" t="s">
+      <c r="K3" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="59"/>
+      <c r="L3" s="58"/>
       <c r="M3" s="35"/>
-      <c r="N3" s="60" t="s">
+      <c r="N3" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="61"/>
+      <c r="O3" s="60"/>
       <c r="P3" s="33"/>
       <c r="Q3" s="33"/>
       <c r="R3" s="33"/>
@@ -1611,20 +3173,21 @@
       <c r="B5" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="119">
         <v>1112</v>
       </c>
-      <c r="D5" s="42">
-        <v>1218</v>
-      </c>
-      <c r="E5" s="43">
+      <c r="D5" s="41">
+        <f>C5</f>
+        <v>1112</v>
+      </c>
+      <c r="E5" s="42">
         <f t="shared" ref="E5:E12" si="0">C5-F5</f>
         <v>-38</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5" s="116">
         <v>1150</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="41">
         <f>F5</f>
         <v>1150</v>
       </c>
@@ -1635,20 +3198,21 @@
       <c r="J5" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="52">
+      <c r="K5" s="48">
         <v>106</v>
       </c>
-      <c r="L5" s="42">
-        <v>1218</v>
-      </c>
-      <c r="M5" s="43">
+      <c r="L5" s="41">
+        <f>K5</f>
+        <v>106</v>
+      </c>
+      <c r="M5" s="42">
         <f t="shared" ref="M5:M12" si="1">K5-N5</f>
         <v>17</v>
       </c>
-      <c r="N5" s="53">
+      <c r="N5" s="49">
         <v>89</v>
       </c>
-      <c r="O5" s="42">
+      <c r="O5" s="41">
         <f>N5</f>
         <v>89</v>
       </c>
@@ -1659,357 +3223,371 @@
       <c r="R5" s="33"/>
     </row>
     <row r="6" spans="2:18" ht="16" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="117">
         <v>413</v>
       </c>
-      <c r="D6" s="42">
-        <v>447</v>
-      </c>
-      <c r="E6" s="43">
+      <c r="D6" s="41">
+        <f t="shared" ref="D6:D12" si="2">C6</f>
+        <v>413</v>
+      </c>
+      <c r="E6" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="114">
         <v>413</v>
       </c>
-      <c r="G6" s="42">
-        <f t="shared" ref="G6:G10" si="2">F6</f>
+      <c r="G6" s="41">
+        <f t="shared" ref="G6:G10" si="3">F6</f>
         <v>413</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="43" t="s">
         <v>9</v>
       </c>
       <c r="I6" s="33"/>
-      <c r="J6" s="44" t="s">
+      <c r="J6" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="53">
+      <c r="K6" s="49">
         <v>24</v>
       </c>
-      <c r="L6" s="42">
-        <v>447</v>
-      </c>
-      <c r="M6" s="43">
+      <c r="L6" s="41">
+        <f t="shared" ref="L6:L12" si="4">K6</f>
+        <v>24</v>
+      </c>
+      <c r="M6" s="42">
         <f t="shared" si="1"/>
         <v>-15</v>
       </c>
-      <c r="N6" s="52">
+      <c r="N6" s="48">
         <v>39</v>
       </c>
-      <c r="O6" s="42">
-        <f t="shared" ref="O6:O10" si="3">N6</f>
+      <c r="O6" s="41">
+        <f t="shared" ref="O6:O10" si="5">N6</f>
         <v>39</v>
       </c>
-      <c r="P6" s="44" t="s">
+      <c r="P6" s="43" t="s">
         <v>9</v>
       </c>
       <c r="Q6" s="33"/>
       <c r="R6" s="33"/>
     </row>
     <row r="7" spans="2:18" ht="16" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="117">
         <v>1469</v>
       </c>
-      <c r="D7" s="42">
-        <v>1622</v>
-      </c>
-      <c r="E7" s="43">
+      <c r="D7" s="41">
+        <f t="shared" si="2"/>
+        <v>1469</v>
+      </c>
+      <c r="E7" s="42">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F7" s="47">
+      <c r="F7" s="114">
         <v>1458</v>
       </c>
-      <c r="G7" s="42">
-        <f t="shared" si="2"/>
+      <c r="G7" s="41">
+        <f t="shared" si="3"/>
         <v>1458</v>
       </c>
-      <c r="H7" s="46" t="s">
+      <c r="H7" s="44" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="33"/>
-      <c r="J7" s="46" t="s">
+      <c r="J7" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="53">
+      <c r="K7" s="49">
         <v>128</v>
       </c>
-      <c r="L7" s="42">
-        <v>1622</v>
-      </c>
-      <c r="M7" s="43">
+      <c r="L7" s="41">
+        <f t="shared" si="4"/>
+        <v>128</v>
+      </c>
+      <c r="M7" s="42">
         <f t="shared" si="1"/>
         <v>-8</v>
       </c>
-      <c r="N7" s="52">
+      <c r="N7" s="48">
         <v>136</v>
       </c>
-      <c r="O7" s="42">
-        <f t="shared" si="3"/>
+      <c r="O7" s="41">
+        <f t="shared" si="5"/>
         <v>136</v>
       </c>
-      <c r="P7" s="46" t="s">
+      <c r="P7" s="44" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="33"/>
       <c r="R7" s="33"/>
     </row>
     <row r="8" spans="2:18" ht="16" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="117">
         <v>952</v>
       </c>
-      <c r="D8" s="42">
-        <v>1068</v>
-      </c>
-      <c r="E8" s="43">
+      <c r="D8" s="41">
+        <f t="shared" si="2"/>
+        <v>952</v>
+      </c>
+      <c r="E8" s="42">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="114">
         <v>950</v>
       </c>
-      <c r="G8" s="42">
-        <f t="shared" si="2"/>
+      <c r="G8" s="41">
+        <f t="shared" si="3"/>
         <v>950</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="43" t="s">
         <v>12</v>
       </c>
       <c r="I8" s="33"/>
-      <c r="J8" s="44" t="s">
+      <c r="J8" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="53">
+      <c r="K8" s="49">
         <v>85</v>
       </c>
-      <c r="L8" s="42">
-        <v>1068</v>
-      </c>
-      <c r="M8" s="43">
+      <c r="L8" s="41">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="M8" s="42">
         <f t="shared" si="1"/>
         <v>-16</v>
       </c>
-      <c r="N8" s="52">
+      <c r="N8" s="48">
         <v>101</v>
       </c>
-      <c r="O8" s="42">
-        <f t="shared" si="3"/>
+      <c r="O8" s="41">
+        <f t="shared" si="5"/>
         <v>101</v>
       </c>
-      <c r="P8" s="44" t="s">
+      <c r="P8" s="43" t="s">
         <v>12</v>
       </c>
       <c r="Q8" s="33"/>
       <c r="R8" s="33"/>
     </row>
     <row r="9" spans="2:18" ht="16" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="47">
+      <c r="C9" s="114">
         <v>672</v>
       </c>
-      <c r="D9" s="42">
-        <v>761</v>
-      </c>
-      <c r="E9" s="43">
+      <c r="D9" s="41">
+        <f t="shared" si="2"/>
+        <v>672</v>
+      </c>
+      <c r="E9" s="42">
         <f t="shared" si="0"/>
         <v>-11</v>
       </c>
-      <c r="F9" s="47">
+      <c r="F9" s="117">
         <v>683</v>
       </c>
-      <c r="G9" s="42">
-        <f t="shared" si="2"/>
+      <c r="G9" s="41">
+        <f t="shared" si="3"/>
         <v>683</v>
       </c>
-      <c r="H9" s="46" t="s">
+      <c r="H9" s="44" t="s">
         <v>13</v>
       </c>
       <c r="I9" s="33"/>
-      <c r="J9" s="46" t="s">
+      <c r="J9" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="53">
+      <c r="K9" s="49">
         <v>52</v>
       </c>
-      <c r="L9" s="42">
-        <v>761</v>
-      </c>
-      <c r="M9" s="43">
+      <c r="L9" s="41">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="M9" s="42">
         <f t="shared" si="1"/>
         <v>-4</v>
       </c>
-      <c r="N9" s="52">
+      <c r="N9" s="48">
         <v>56</v>
       </c>
-      <c r="O9" s="42">
-        <f t="shared" si="3"/>
+      <c r="O9" s="41">
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
-      <c r="P9" s="46" t="s">
+      <c r="P9" s="44" t="s">
         <v>13</v>
       </c>
       <c r="Q9" s="33"/>
       <c r="R9" s="33"/>
     </row>
     <row r="10" spans="2:18" ht="16" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="117">
         <v>1072</v>
       </c>
-      <c r="D10" s="42">
-        <v>1204</v>
-      </c>
-      <c r="E10" s="43">
+      <c r="D10" s="41">
+        <f t="shared" si="2"/>
+        <v>1072</v>
+      </c>
+      <c r="E10" s="42">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="114">
         <v>1057</v>
       </c>
-      <c r="G10" s="42">
-        <f t="shared" si="2"/>
+      <c r="G10" s="41">
+        <f t="shared" si="3"/>
         <v>1057</v>
       </c>
-      <c r="H10" s="44" t="s">
+      <c r="H10" s="43" t="s">
         <v>7</v>
       </c>
       <c r="I10" s="33"/>
-      <c r="J10" s="44" t="s">
+      <c r="J10" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="53">
+      <c r="K10" s="49">
         <v>88</v>
       </c>
-      <c r="L10" s="42">
-        <v>1204</v>
-      </c>
-      <c r="M10" s="43">
+      <c r="L10" s="41">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="M10" s="42">
         <f t="shared" si="1"/>
         <v>-15</v>
       </c>
-      <c r="N10" s="52">
+      <c r="N10" s="48">
         <v>103</v>
       </c>
-      <c r="O10" s="42">
-        <f t="shared" si="3"/>
+      <c r="O10" s="41">
+        <f t="shared" si="5"/>
         <v>103</v>
       </c>
-      <c r="P10" s="44" t="s">
+      <c r="P10" s="43" t="s">
         <v>7</v>
       </c>
       <c r="Q10" s="33"/>
       <c r="R10" s="33"/>
     </row>
     <row r="11" spans="2:18" ht="16" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="117">
         <v>543</v>
       </c>
-      <c r="D11" s="42">
-        <v>628</v>
-      </c>
-      <c r="E11" s="43">
+      <c r="D11" s="41">
+        <f t="shared" si="2"/>
+        <v>543</v>
+      </c>
+      <c r="E11" s="42">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="114">
         <v>541</v>
       </c>
-      <c r="G11" s="42">
+      <c r="G11" s="41">
         <f>F11</f>
         <v>541</v>
       </c>
-      <c r="H11" s="46" t="s">
+      <c r="H11" s="44" t="s">
         <v>43</v>
       </c>
       <c r="I11" s="33"/>
-      <c r="J11" s="46" t="s">
+      <c r="J11" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="53">
+      <c r="K11" s="49">
         <v>31</v>
       </c>
-      <c r="L11" s="42">
-        <v>628</v>
-      </c>
-      <c r="M11" s="43">
+      <c r="L11" s="41">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="M11" s="42">
         <f t="shared" si="1"/>
         <v>-16</v>
       </c>
-      <c r="N11" s="52">
+      <c r="N11" s="48">
         <v>47</v>
       </c>
-      <c r="O11" s="42">
+      <c r="O11" s="41">
         <f>N11</f>
         <v>47</v>
       </c>
-      <c r="P11" s="46" t="s">
+      <c r="P11" s="44" t="s">
         <v>43</v>
       </c>
       <c r="Q11" s="33"/>
       <c r="R11" s="33"/>
     </row>
     <row r="12" spans="2:18" ht="16" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12" s="118">
         <v>185</v>
       </c>
-      <c r="D12" s="50">
-        <v>97</v>
-      </c>
-      <c r="E12" s="51">
+      <c r="D12" s="46">
+        <f t="shared" si="2"/>
+        <v>185</v>
+      </c>
+      <c r="E12" s="47">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F12" s="120">
         <v>179</v>
       </c>
-      <c r="G12" s="50">
+      <c r="G12" s="46">
         <f>F12</f>
         <v>179</v>
       </c>
-      <c r="H12" s="48" t="s">
+      <c r="H12" s="45" t="s">
         <v>44</v>
       </c>
       <c r="I12" s="33"/>
-      <c r="J12" s="48" t="s">
+      <c r="J12" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="K12" s="56">
+      <c r="K12" s="50">
         <v>11</v>
       </c>
-      <c r="L12" s="50">
-        <v>97</v>
-      </c>
-      <c r="M12" s="51">
+      <c r="L12" s="46">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="M12" s="47">
         <f t="shared" si="1"/>
         <v>-8</v>
       </c>
-      <c r="N12" s="57">
+      <c r="N12" s="51">
         <v>19</v>
       </c>
-      <c r="O12" s="50">
+      <c r="O12" s="46">
         <f>N12</f>
         <v>19</v>
       </c>
-      <c r="P12" s="48" t="s">
+      <c r="P12" s="45" t="s">
         <v>44</v>
       </c>
       <c r="Q12" s="33"/>
@@ -2036,15 +3614,15 @@
     </row>
     <row r="14" spans="2:18" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="33"/>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="59"/>
+      <c r="D14" s="58"/>
       <c r="E14" s="35"/>
-      <c r="F14" s="60" t="s">
+      <c r="F14" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="61"/>
+      <c r="G14" s="60"/>
       <c r="H14" s="33"/>
     </row>
     <row r="15" spans="2:18" ht="16" thickBot="1" x14ac:dyDescent="0.45">
@@ -2071,20 +3649,20 @@
       <c r="B16" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C16" s="119">
         <v>1218</v>
       </c>
-      <c r="D16" s="42">
+      <c r="D16" s="41">
         <v>1218</v>
       </c>
-      <c r="E16" s="43">
-        <f t="shared" ref="E16:E23" si="4">C16-F16</f>
+      <c r="E16" s="42">
+        <f t="shared" ref="E16:E23" si="6">C16-F16</f>
         <v>-91</v>
       </c>
-      <c r="F16" s="41">
+      <c r="F16" s="116">
         <v>1309</v>
       </c>
-      <c r="G16" s="42">
+      <c r="G16" s="41">
         <f>F16</f>
         <v>1309</v>
       </c>
@@ -2093,177 +3671,177 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="45">
+      <c r="C17" s="114">
         <v>447</v>
       </c>
-      <c r="D17" s="42">
+      <c r="D17" s="41">
         <v>447</v>
       </c>
-      <c r="E17" s="43">
-        <f t="shared" si="4"/>
-        <v>34</v>
-      </c>
-      <c r="F17" s="45">
-        <v>413</v>
-      </c>
-      <c r="G17" s="42">
-        <f t="shared" ref="G17:G21" si="5">F17</f>
-        <v>413</v>
-      </c>
-      <c r="H17" s="44" t="s">
+      <c r="E17" s="42">
+        <f t="shared" si="6"/>
+        <v>-2</v>
+      </c>
+      <c r="F17" s="117">
+        <v>449</v>
+      </c>
+      <c r="G17" s="41">
+        <f t="shared" ref="G17:G21" si="7">F17</f>
+        <v>449</v>
+      </c>
+      <c r="H17" s="43" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="47">
+      <c r="C18" s="114">
         <v>1622</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D18" s="41">
         <v>1622</v>
       </c>
-      <c r="E18" s="43">
-        <f t="shared" si="4"/>
+      <c r="E18" s="42">
+        <f t="shared" si="6"/>
         <v>-27</v>
       </c>
-      <c r="F18" s="47">
+      <c r="F18" s="117">
         <v>1649</v>
       </c>
-      <c r="G18" s="42">
-        <f t="shared" si="5"/>
+      <c r="G18" s="41">
+        <f t="shared" si="7"/>
         <v>1649</v>
       </c>
-      <c r="H18" s="46" t="s">
+      <c r="H18" s="44" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="45">
+      <c r="C19" s="117">
         <v>1068</v>
       </c>
-      <c r="D19" s="42">
+      <c r="D19" s="41">
         <v>1068</v>
       </c>
-      <c r="E19" s="43">
-        <f t="shared" si="4"/>
+      <c r="E19" s="42">
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19" s="114">
         <v>1026</v>
       </c>
-      <c r="G19" s="42">
-        <f t="shared" si="5"/>
+      <c r="G19" s="41">
+        <f t="shared" si="7"/>
         <v>1026</v>
       </c>
-      <c r="H19" s="44" t="s">
+      <c r="H19" s="43" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="47">
+      <c r="C20" s="117">
         <v>761</v>
       </c>
-      <c r="D20" s="42">
+      <c r="D20" s="41">
         <v>761</v>
       </c>
-      <c r="E20" s="43">
-        <f t="shared" si="4"/>
+      <c r="E20" s="42">
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="F20" s="47">
+      <c r="F20" s="114">
         <v>746</v>
       </c>
-      <c r="G20" s="42">
-        <f t="shared" si="5"/>
+      <c r="G20" s="41">
+        <f t="shared" si="7"/>
         <v>746</v>
       </c>
-      <c r="H20" s="46" t="s">
+      <c r="H20" s="44" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="45">
+      <c r="C21" s="117">
         <v>1204</v>
       </c>
-      <c r="D21" s="42">
+      <c r="D21" s="41">
         <v>1204</v>
       </c>
-      <c r="E21" s="43">
-        <f t="shared" si="4"/>
+      <c r="E21" s="42">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="F21" s="45">
+      <c r="F21" s="114">
         <v>1197</v>
       </c>
-      <c r="G21" s="42">
-        <f t="shared" si="5"/>
+      <c r="G21" s="41">
+        <f t="shared" si="7"/>
         <v>1197</v>
       </c>
-      <c r="H21" s="44" t="s">
+      <c r="H21" s="43" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="45">
+      <c r="C22" s="117">
         <v>628</v>
       </c>
-      <c r="D22" s="42">
+      <c r="D22" s="41">
         <v>628</v>
       </c>
-      <c r="E22" s="43">
-        <f t="shared" si="4"/>
+      <c r="E22" s="42">
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
-      <c r="F22" s="52">
+      <c r="F22" s="113">
         <v>599</v>
       </c>
-      <c r="G22" s="42">
+      <c r="G22" s="41">
         <f>F22</f>
         <v>599</v>
       </c>
-      <c r="H22" s="46" t="s">
+      <c r="H22" s="44" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="49">
+      <c r="C23" s="118">
         <v>230</v>
       </c>
-      <c r="D23" s="50">
+      <c r="D23" s="46">
         <v>97</v>
       </c>
-      <c r="E23" s="51">
-        <f t="shared" si="4"/>
+      <c r="E23" s="47">
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
-      <c r="F23" s="49">
+      <c r="F23" s="120">
         <v>191</v>
       </c>
-      <c r="G23" s="50">
+      <c r="G23" s="46">
         <f>F23</f>
         <v>191</v>
       </c>
-      <c r="H23" s="48" t="s">
+      <c r="H23" s="45" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2278,15 +3856,15 @@
     </row>
     <row r="25" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="33"/>
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="59"/>
+      <c r="D25" s="58"/>
       <c r="E25" s="35"/>
-      <c r="F25" s="60" t="s">
+      <c r="F25" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="61"/>
+      <c r="G25" s="60"/>
       <c r="H25" s="33"/>
     </row>
     <row r="26" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.45">
@@ -2313,20 +3891,21 @@
       <c r="B27" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="53">
+      <c r="C27" s="123">
         <v>1372</v>
       </c>
-      <c r="D27" s="42">
-        <v>1218</v>
-      </c>
-      <c r="E27" s="43">
-        <f t="shared" ref="E27:E34" si="6">C27-F27</f>
+      <c r="D27" s="41">
+        <f>C27</f>
+        <v>1372</v>
+      </c>
+      <c r="E27" s="42">
+        <f t="shared" ref="E27:E34" si="8">C27-F27</f>
         <v>-37</v>
       </c>
-      <c r="F27" s="54">
+      <c r="F27" s="115">
         <v>1409</v>
       </c>
-      <c r="G27" s="42">
+      <c r="G27" s="41">
         <f>F27</f>
         <v>1409</v>
       </c>
@@ -2335,220 +3914,333 @@
       </c>
     </row>
     <row r="28" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="53">
+      <c r="C28" s="123">
         <v>500</v>
       </c>
-      <c r="D28" s="42">
-        <v>447</v>
-      </c>
-      <c r="E28" s="43">
-        <f t="shared" si="6"/>
+      <c r="D28" s="41">
+        <f t="shared" ref="D28:D34" si="9">C28</f>
+        <v>500</v>
+      </c>
+      <c r="E28" s="42">
+        <f t="shared" si="8"/>
         <v>-10</v>
       </c>
-      <c r="F28" s="54">
+      <c r="F28" s="115">
         <v>510</v>
       </c>
-      <c r="G28" s="42">
-        <f t="shared" ref="G28:G32" si="7">F28</f>
+      <c r="G28" s="41">
+        <f t="shared" ref="G28:G32" si="10">F28</f>
         <v>510</v>
       </c>
-      <c r="H28" s="44" t="s">
+      <c r="H28" s="43" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="53">
+      <c r="C29" s="123">
         <v>1803</v>
       </c>
-      <c r="D29" s="42">
-        <v>1622</v>
-      </c>
-      <c r="E29" s="43">
-        <f t="shared" si="6"/>
+      <c r="D29" s="41">
+        <f t="shared" si="9"/>
+        <v>1803</v>
+      </c>
+      <c r="E29" s="42">
+        <f t="shared" si="8"/>
         <v>-5</v>
       </c>
-      <c r="F29" s="54">
+      <c r="F29" s="115">
         <v>1808</v>
       </c>
-      <c r="G29" s="42">
-        <f t="shared" si="7"/>
+      <c r="G29" s="41">
+        <f t="shared" si="10"/>
         <v>1808</v>
       </c>
-      <c r="H29" s="46" t="s">
+      <c r="H29" s="44" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="53">
+      <c r="C30" s="123">
         <v>1176</v>
       </c>
-      <c r="D30" s="42">
-        <v>1068</v>
-      </c>
-      <c r="E30" s="43">
-        <f t="shared" si="6"/>
+      <c r="D30" s="41">
+        <f t="shared" si="9"/>
+        <v>1176</v>
+      </c>
+      <c r="E30" s="42">
+        <f t="shared" si="8"/>
         <v>-43</v>
       </c>
-      <c r="F30" s="54">
+      <c r="F30" s="115">
         <v>1219</v>
       </c>
-      <c r="G30" s="42">
-        <f t="shared" si="7"/>
+      <c r="G30" s="41">
+        <f t="shared" si="10"/>
         <v>1219</v>
       </c>
-      <c r="H30" s="44" t="s">
+      <c r="H30" s="43" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="54">
+      <c r="C31" s="121">
         <v>847</v>
       </c>
-      <c r="D31" s="42">
-        <v>761</v>
-      </c>
-      <c r="E31" s="43">
-        <f t="shared" si="6"/>
+      <c r="D31" s="41">
+        <f t="shared" si="9"/>
+        <v>847</v>
+      </c>
+      <c r="E31" s="42">
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="F31" s="53">
+      <c r="F31" s="124">
         <v>833</v>
       </c>
-      <c r="G31" s="42">
-        <f t="shared" si="7"/>
+      <c r="G31" s="41">
+        <f t="shared" si="10"/>
         <v>833</v>
       </c>
-      <c r="H31" s="46" t="s">
+      <c r="H31" s="44" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="54">
+      <c r="C32" s="121">
         <v>1346</v>
       </c>
-      <c r="D32" s="42">
-        <v>1204</v>
-      </c>
-      <c r="E32" s="43">
-        <f t="shared" si="6"/>
+      <c r="D32" s="41">
+        <f t="shared" si="9"/>
+        <v>1346</v>
+      </c>
+      <c r="E32" s="42">
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
-      <c r="F32" s="53">
+      <c r="F32" s="124">
         <v>1329</v>
       </c>
-      <c r="G32" s="42">
-        <f t="shared" si="7"/>
+      <c r="G32" s="41">
+        <f t="shared" si="10"/>
         <v>1329</v>
       </c>
-      <c r="H32" s="44" t="s">
+      <c r="H32" s="43" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="54">
+      <c r="C33" s="121">
         <v>665</v>
       </c>
-      <c r="D33" s="42">
-        <v>628</v>
-      </c>
-      <c r="E33" s="43">
-        <f t="shared" si="6"/>
+      <c r="D33" s="41">
+        <f t="shared" si="9"/>
+        <v>665</v>
+      </c>
+      <c r="E33" s="42">
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
-      <c r="F33" s="53">
+      <c r="F33" s="124">
         <v>636</v>
       </c>
-      <c r="G33" s="42">
+      <c r="G33" s="41">
         <f>F33</f>
         <v>636</v>
       </c>
-      <c r="H33" s="46" t="s">
+      <c r="H33" s="44" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="55">
+      <c r="C34" s="122">
         <v>238</v>
       </c>
-      <c r="D34" s="50">
-        <v>97</v>
-      </c>
-      <c r="E34" s="51">
-        <f t="shared" si="6"/>
+      <c r="D34" s="46">
+        <f t="shared" si="9"/>
+        <v>238</v>
+      </c>
+      <c r="E34" s="47">
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="F34" s="56">
+      <c r="F34" s="111">
         <v>230</v>
       </c>
-      <c r="G34" s="50">
+      <c r="G34" s="46">
         <f>F34</f>
         <v>230</v>
       </c>
-      <c r="H34" s="48" t="s">
+      <c r="H34" s="45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
+      <c r="F35" s="112"/>
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
     </row>
+    <row r="36" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="33"/>
+      <c r="C36" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="109"/>
+    </row>
+    <row r="37" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="33"/>
+      <c r="C37" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="110">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="115">
+        <v>1260</v>
+      </c>
+      <c r="D38" s="37">
+        <f>C38</f>
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="115">
+        <v>558</v>
+      </c>
+      <c r="D39" s="37">
+        <f t="shared" ref="D39:D45" si="11">C39</f>
+        <v>558</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="115">
+        <v>1777</v>
+      </c>
+      <c r="D40" s="37">
+        <f t="shared" si="11"/>
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="115">
+        <v>1113</v>
+      </c>
+      <c r="D41" s="37">
+        <f t="shared" si="11"/>
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="121">
+        <v>778</v>
+      </c>
+      <c r="D42" s="37">
+        <f>C42</f>
+        <v>778</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="121">
+        <v>1235</v>
+      </c>
+      <c r="D43" s="37">
+        <f>C43</f>
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="121">
+        <v>761</v>
+      </c>
+      <c r="D44" s="37">
+        <f t="shared" si="11"/>
+        <v>761</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="122">
+        <v>242</v>
+      </c>
+      <c r="D45" s="46">
+        <f t="shared" si="11"/>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="K3:L3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="J1:P1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
   </mergeCells>
-  <conditionalFormatting sqref="C5:C12">
-    <cfRule type="cellIs" dxfId="51" priority="16" operator="lessThan">
-      <formula>599</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="17" operator="greaterThan">
-      <formula>600</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:C23">
-    <cfRule type="cellIs" dxfId="49" priority="6" operator="lessThan">
-      <formula>599</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="7" operator="greaterThan">
-      <formula>600</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D5:D12">
-    <cfRule type="dataBar" priority="20">
+    <cfRule type="dataBar" priority="29">
       <dataBar showValue="0">
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2562,7 +4254,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D23">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="22">
       <dataBar showValue="0">
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2576,7 +4268,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:D34">
-    <cfRule type="dataBar" priority="10">
+    <cfRule type="dataBar" priority="19">
       <dataBar showValue="0">
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2590,7 +4282,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E12">
-    <cfRule type="dataBar" priority="18">
+    <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2604,7 +4296,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:E23">
-    <cfRule type="dataBar" priority="11">
+    <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2618,7 +4310,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:E34">
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2631,24 +4323,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F12">
-    <cfRule type="cellIs" dxfId="47" priority="14" operator="lessThan">
-      <formula>599</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="15" operator="greaterThan">
-      <formula>600</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16:F23">
-    <cfRule type="cellIs" dxfId="45" priority="4" operator="lessThan">
-      <formula>599</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="5" operator="greaterThan">
-      <formula>600</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G5:G12">
-    <cfRule type="dataBar" priority="19">
+    <cfRule type="dataBar" priority="28">
       <dataBar showValue="0">
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2662,7 +4338,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:G23">
-    <cfRule type="dataBar" priority="12">
+    <cfRule type="dataBar" priority="21">
       <dataBar showValue="0">
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2676,7 +4352,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:G34">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="18">
       <dataBar showValue="0">
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2690,7 +4366,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:L12">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="12">
       <dataBar showValue="0">
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2704,7 +4380,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M12">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2718,7 +4394,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:O12">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="11">
       <dataBar showValue="0">
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2727,6 +4403,20 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{262EAEE8-63C2-4E38-8B74-BC9FBDFD49AB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:D45">
+    <cfRule type="dataBar" priority="9">
+      <dataBar showValue="0">
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6F0741F9-C3DB-49EE-A499-044A3728626A}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2892,6 +4582,19 @@
           </x14:cfRule>
           <xm:sqref>O5:O12</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6F0741F9-C3DB-49EE-A499-044A3728626A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D38:D45</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -2900,10 +4603,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93BCD554-AE85-4462-89AD-2B2953C87D63}">
-  <dimension ref="A1:AF36"/>
+  <dimension ref="A1:AE48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:AF11"/>
+    <sheetView showGridLines="0" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2915,73 +4618,69 @@
     <col min="21" max="21" width="3.453125" customWidth="1"/>
     <col min="22" max="22" width="4.7265625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11" customWidth="1"/>
-    <col min="27" max="27" width="11" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="24" max="31" width="12.6328125" customWidth="1"/>
     <col min="32" max="32" width="3.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68"/>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="68"/>
-    </row>
-    <row r="2" spans="1:32" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="77" t="s">
+    <row r="1" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75"/>
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="75"/>
+      <c r="AB1" s="75"/>
+      <c r="AC1" s="75"/>
+      <c r="AD1" s="75"/>
+      <c r="AE1" s="75"/>
+    </row>
+    <row r="2" spans="1:31" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="71" t="s">
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="74" t="s">
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="74" t="s">
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="76"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="81" t="s">
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="74"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" s="81"/>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="81"/>
-      <c r="AB2" s="81"/>
-      <c r="AC2" s="81"/>
-      <c r="AD2" s="81"/>
-      <c r="AE2" s="81"/>
-      <c r="AF2" s="79"/>
-    </row>
-    <row r="3" spans="1:32" ht="20" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="78"/>
-      <c r="B3" s="70"/>
+      <c r="Y2" s="76"/>
+      <c r="Z2" s="76"/>
+      <c r="AA2" s="76"/>
+      <c r="AB2" s="76"/>
+      <c r="AC2" s="76"/>
+      <c r="AD2" s="76"/>
+      <c r="AE2" s="76"/>
+    </row>
+    <row r="3" spans="1:31" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="68"/>
+      <c r="B3" s="80"/>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
@@ -3031,24 +4730,23 @@
         <v>6</v>
       </c>
       <c r="S3" s="6"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="80"/>
-      <c r="X3" s="82" t="s">
+      <c r="V3" s="52"/>
+      <c r="W3" s="52"/>
+      <c r="X3" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="Y3" s="82"/>
-      <c r="Z3" s="82"/>
-      <c r="AA3" s="82"/>
-      <c r="AB3" s="83" t="s">
+      <c r="Y3" s="77"/>
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="AC3" s="83"/>
-      <c r="AD3" s="83"/>
-      <c r="AE3" s="83"/>
-      <c r="AF3" s="79"/>
-    </row>
-    <row r="4" spans="1:32" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="78"/>
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="78"/>
+      <c r="AE3" s="78"/>
+    </row>
+    <row r="4" spans="1:31" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="68"/>
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
@@ -3103,36 +4801,35 @@
       <c r="S4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="80"/>
-      <c r="W4" s="80"/>
-      <c r="X4" s="86" t="s">
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="Y4" s="86" t="s">
+      <c r="Y4" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="Z4" s="86" t="s">
+      <c r="Z4" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AA4" s="86" t="s">
+      <c r="AA4" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="AB4" s="87" t="s">
+      <c r="AB4" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="AC4" s="87" t="s">
+      <c r="AC4" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="AD4" s="87" t="s">
+      <c r="AD4" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="AE4" s="87" t="s">
+      <c r="AE4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="AF4" s="79"/>
-    </row>
-    <row r="5" spans="1:32" ht="20.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="78"/>
+    </row>
+    <row r="5" spans="1:31" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="68"/>
       <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
@@ -3187,40 +4884,39 @@
       <c r="S5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="V5" s="84" t="s">
+      <c r="V5" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="W5" s="85" t="s">
+      <c r="W5" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="X5" s="88">
+      <c r="X5" s="56">
         <v>0.85799999999999998</v>
       </c>
-      <c r="Y5" s="88">
+      <c r="Y5" s="56">
         <v>0.82199999999999995</v>
       </c>
-      <c r="Z5" s="88">
+      <c r="Z5" s="56">
         <v>0.86</v>
       </c>
-      <c r="AA5" s="88">
+      <c r="AA5" s="56">
         <v>0.71099999999999997</v>
       </c>
-      <c r="AB5" s="88">
+      <c r="AB5" s="56">
         <v>0.624</v>
       </c>
-      <c r="AC5" s="88">
+      <c r="AC5" s="56">
         <v>0.50600000000000001</v>
       </c>
-      <c r="AD5" s="88">
+      <c r="AD5" s="56">
         <v>0.52600000000000002</v>
       </c>
-      <c r="AE5" s="88">
+      <c r="AE5" s="56">
         <v>0.36199999999999999</v>
       </c>
-      <c r="AF5" s="79"/>
-    </row>
-    <row r="6" spans="1:32" ht="20.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="78"/>
+    </row>
+    <row r="6" spans="1:31" ht="20.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="68"/>
       <c r="B6" s="13" t="s">
         <v>9</v>
       </c>
@@ -3275,38 +4971,37 @@
       <c r="S6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="V6" s="84"/>
-      <c r="W6" s="85" t="s">
+      <c r="V6" s="107"/>
+      <c r="W6" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="X6" s="88">
+      <c r="X6" s="56">
         <v>0.85199999999999998</v>
       </c>
-      <c r="Y6" s="88">
+      <c r="Y6" s="56">
         <v>0.82899999999999996</v>
       </c>
-      <c r="Z6" s="88">
+      <c r="Z6" s="56">
         <v>0.85399999999999998</v>
       </c>
-      <c r="AA6" s="88">
+      <c r="AA6" s="56">
         <v>0.71</v>
       </c>
-      <c r="AB6" s="88">
+      <c r="AB6" s="56">
         <v>0.80200000000000005</v>
       </c>
-      <c r="AC6" s="88">
+      <c r="AC6" s="56">
         <v>0.64800000000000002</v>
       </c>
-      <c r="AD6" s="88">
+      <c r="AD6" s="56">
         <v>0.69899999999999995</v>
       </c>
-      <c r="AE6" s="88">
+      <c r="AE6" s="56">
         <v>0.52800000000000002</v>
       </c>
-      <c r="AF6" s="79"/>
-    </row>
-    <row r="7" spans="1:32" ht="20.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="78"/>
+    </row>
+    <row r="7" spans="1:31" ht="20.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="68"/>
       <c r="B7" s="14" t="s">
         <v>11</v>
       </c>
@@ -3361,37 +5056,37 @@
       <c r="S7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="V7" s="84"/>
-      <c r="W7" s="85" t="s">
+      <c r="V7" s="107"/>
+      <c r="W7" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="X7" s="88">
+      <c r="X7" s="56">
         <v>0.85</v>
       </c>
-      <c r="Y7" s="88">
+      <c r="Y7" s="56">
         <v>0.84399999999999997</v>
       </c>
-      <c r="Z7" s="88">
+      <c r="Z7" s="56">
         <v>0.88200000000000001</v>
       </c>
-      <c r="AA7" s="88">
+      <c r="AA7" s="56">
         <v>0.72199999999999998</v>
       </c>
-      <c r="AB7" s="88">
+      <c r="AB7" s="56">
         <v>0.91900000000000004</v>
       </c>
-      <c r="AC7" s="88">
+      <c r="AC7" s="56">
         <v>0.78100000000000003</v>
       </c>
-      <c r="AD7" s="88">
+      <c r="AD7" s="56">
         <v>0.85</v>
       </c>
-      <c r="AE7" s="88">
+      <c r="AE7" s="56">
         <v>0.71399999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="20.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="78"/>
+    <row r="8" spans="1:31" ht="20.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="68"/>
       <c r="B8" s="10" t="s">
         <v>12</v>
       </c>
@@ -3446,37 +5141,37 @@
       <c r="S8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="V8" s="84"/>
-      <c r="W8" s="85" t="s">
+      <c r="V8" s="107"/>
+      <c r="W8" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="X8" s="88">
+      <c r="X8" s="56">
         <v>0.61799999999999999</v>
       </c>
-      <c r="Y8" s="88">
+      <c r="Y8" s="56">
         <v>0.503</v>
       </c>
-      <c r="Z8" s="88">
+      <c r="Z8" s="56">
         <v>0.53100000000000003</v>
       </c>
-      <c r="AA8" s="88">
+      <c r="AA8" s="56">
         <v>0.35</v>
       </c>
-      <c r="AB8" s="88">
+      <c r="AB8" s="56">
         <v>0.86899999999999999</v>
       </c>
-      <c r="AC8" s="88">
+      <c r="AC8" s="56">
         <v>0.81599999999999995</v>
       </c>
-      <c r="AD8" s="88">
+      <c r="AD8" s="56">
         <v>0.82899999999999996</v>
       </c>
-      <c r="AE8" s="88">
+      <c r="AE8" s="56">
         <v>0.66600000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="20.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="78"/>
+    <row r="9" spans="1:31" ht="20.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="68"/>
       <c r="B9" s="14" t="s">
         <v>13</v>
       </c>
@@ -3531,37 +5226,37 @@
       <c r="S9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="V9" s="84"/>
-      <c r="W9" s="85" t="s">
+      <c r="V9" s="107"/>
+      <c r="W9" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="X9" s="88">
+      <c r="X9" s="56">
         <v>0.83</v>
       </c>
-      <c r="Y9" s="88">
+      <c r="Y9" s="56">
         <v>0.79700000000000004</v>
       </c>
-      <c r="Z9" s="88">
+      <c r="Z9" s="56">
         <v>0.82899999999999996</v>
       </c>
-      <c r="AA9" s="88">
+      <c r="AA9" s="56">
         <v>0.69799999999999995</v>
       </c>
-      <c r="AB9" s="88">
+      <c r="AB9" s="56">
         <v>0.86799999999999999</v>
       </c>
-      <c r="AC9" s="88">
+      <c r="AC9" s="56">
         <v>0.79500000000000004</v>
       </c>
-      <c r="AD9" s="88">
+      <c r="AD9" s="56">
         <v>0.82199999999999995</v>
       </c>
-      <c r="AE9" s="88">
+      <c r="AE9" s="56">
         <v>0.66600000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="20.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="78"/>
+    <row r="10" spans="1:31" ht="20.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="68"/>
       <c r="B10" s="15" t="s">
         <v>14</v>
       </c>
@@ -3616,36 +5311,36 @@
       <c r="S10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="V10" s="84"/>
-      <c r="W10" s="85" t="s">
+      <c r="V10" s="107"/>
+      <c r="W10" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="X10" s="88">
+      <c r="X10" s="56">
         <v>0.94799999999999995</v>
       </c>
-      <c r="Y10" s="88">
+      <c r="Y10" s="56">
         <v>0.90900000000000003</v>
       </c>
-      <c r="Z10" s="88">
+      <c r="Z10" s="56">
         <v>0.95199999999999996</v>
       </c>
-      <c r="AA10" s="88">
+      <c r="AA10" s="56">
         <v>0.84099999999999997</v>
       </c>
-      <c r="AB10" s="88">
+      <c r="AB10" s="56">
         <v>0.88100000000000001</v>
       </c>
-      <c r="AC10" s="88">
+      <c r="AC10" s="56">
         <v>0.80900000000000005</v>
       </c>
-      <c r="AD10" s="88">
+      <c r="AD10" s="56">
         <v>0.84099999999999997</v>
       </c>
-      <c r="AE10" s="88">
+      <c r="AE10" s="56">
         <v>0.67400000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:31" ht="20.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="18" t="s">
         <v>15</v>
       </c>
@@ -3700,18 +5395,36 @@
       <c r="S11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="V11" s="79"/>
-      <c r="W11" s="79"/>
-      <c r="X11" s="79"/>
-      <c r="Y11" s="79"/>
-      <c r="Z11" s="79"/>
-      <c r="AA11" s="79"/>
-      <c r="AB11" s="79"/>
-      <c r="AC11" s="79"/>
-      <c r="AD11" s="79"/>
-      <c r="AE11" s="79"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="V11" s="107"/>
+      <c r="W11" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="X11" s="56">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="Y11" s="56">
+        <v>0.76</v>
+      </c>
+      <c r="Z11" s="56">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="AA11" s="56">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="AB11" s="56">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="AC11" s="56">
+        <v>0.745</v>
+      </c>
+      <c r="AD11" s="56">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="AE11" s="56">
+        <v>0.59499999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="C12" s="30">
         <f>AVERAGE(C4:C10)</f>
         <v>0.8581428571428571</v>
@@ -3776,43 +5489,44 @@
         <f t="shared" si="0"/>
         <v>0.34985714285714281</v>
       </c>
-    </row>
-    <row r="13" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="77" t="s">
+      <c r="V12" s="108"/>
+    </row>
+    <row r="13" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="71" t="s">
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="74" t="s">
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="76"/>
-      <c r="O14" s="74" t="s">
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="P14" s="75"/>
-      <c r="Q14" s="75"/>
-      <c r="R14" s="76"/>
-    </row>
-    <row r="15" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="77"/>
-      <c r="B15" s="70"/>
+      <c r="P14" s="73"/>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="74"/>
+    </row>
+    <row r="15" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="67"/>
+      <c r="B15" s="80"/>
       <c r="C15" s="2" t="s">
         <v>26</v>
       </c>
@@ -3863,8 +5577,8 @@
       </c>
       <c r="S15" s="6"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A16" s="77"/>
+    <row r="16" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="67"/>
       <c r="B16" s="7" t="s">
         <v>7</v>
       </c>
@@ -3921,7 +5635,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="77"/>
+      <c r="A17" s="67"/>
       <c r="B17" s="10" t="s">
         <v>8</v>
       </c>
@@ -3978,7 +5692,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A18" s="77"/>
+      <c r="A18" s="67"/>
       <c r="B18" s="13" t="s">
         <v>9</v>
       </c>
@@ -4035,7 +5749,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A19" s="77"/>
+      <c r="A19" s="67"/>
       <c r="B19" s="14" t="s">
         <v>11</v>
       </c>
@@ -4092,7 +5806,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A20" s="77"/>
+      <c r="A20" s="67"/>
       <c r="B20" s="10" t="s">
         <v>12</v>
       </c>
@@ -4149,7 +5863,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A21" s="77"/>
+      <c r="A21" s="67"/>
       <c r="B21" s="14" t="s">
         <v>13</v>
       </c>
@@ -4206,7 +5920,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="77"/>
+      <c r="A22" s="67"/>
       <c r="B22" s="15" t="s">
         <v>14</v>
       </c>
@@ -4263,7 +5977,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="77"/>
+      <c r="A23" s="67"/>
       <c r="B23" s="18" t="s">
         <v>15</v>
       </c>
@@ -4389,40 +6103,40 @@
     </row>
     <row r="25" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="26" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="77" t="s">
+      <c r="A26" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="71" t="s">
+      <c r="C26" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="71" t="s">
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="74" t="s">
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="L26" s="75"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="74" t="s">
+      <c r="L26" s="73"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="74"/>
+      <c r="O26" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="P26" s="75"/>
-      <c r="Q26" s="75"/>
-      <c r="R26" s="76"/>
+      <c r="P26" s="73"/>
+      <c r="Q26" s="73"/>
+      <c r="R26" s="74"/>
     </row>
     <row r="27" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="77"/>
-      <c r="B27" s="70"/>
+      <c r="A27" s="67"/>
+      <c r="B27" s="80"/>
       <c r="C27" s="2" t="s">
         <v>26</v>
       </c>
@@ -4474,7 +6188,7 @@
       <c r="S27" s="6"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A28" s="77"/>
+      <c r="A28" s="67"/>
       <c r="B28" s="7" t="s">
         <v>7</v>
       </c>
@@ -4531,7 +6245,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A29" s="77"/>
+      <c r="A29" s="67"/>
       <c r="B29" s="10" t="s">
         <v>8</v>
       </c>
@@ -4588,7 +6302,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A30" s="77"/>
+      <c r="A30" s="67"/>
       <c r="B30" s="13" t="s">
         <v>9</v>
       </c>
@@ -4645,7 +6359,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A31" s="77"/>
+      <c r="A31" s="67"/>
       <c r="B31" s="14" t="s">
         <v>11</v>
       </c>
@@ -4702,7 +6416,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A32" s="77"/>
+      <c r="A32" s="67"/>
       <c r="B32" s="10" t="s">
         <v>12</v>
       </c>
@@ -4759,7 +6473,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A33" s="77"/>
+      <c r="A33" s="67"/>
       <c r="B33" s="14" t="s">
         <v>13</v>
       </c>
@@ -4816,7 +6530,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="77"/>
+      <c r="A34" s="67"/>
       <c r="B34" s="15" t="s">
         <v>14</v>
       </c>
@@ -4873,7 +6587,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="77"/>
+      <c r="A35" s="67"/>
       <c r="B35" s="18" t="s">
         <v>15</v>
       </c>
@@ -4995,15 +6709,361 @@
         <v>0.84071428571428564</v>
       </c>
     </row>
+    <row r="37" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="38" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="84"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38" s="84"/>
+      <c r="I38" s="84"/>
+      <c r="J38" s="85"/>
+      <c r="K38" s="87"/>
+    </row>
+    <row r="39" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="88"/>
+      <c r="B39" s="89"/>
+      <c r="C39" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="90" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="91" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" s="90" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39" s="91" t="s">
+        <v>5</v>
+      </c>
+      <c r="J39" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="K39" s="92"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A40" s="88"/>
+      <c r="B40" s="93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="94">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="D40" s="94">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="E40" s="94">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="F40" s="94">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="G40" s="94">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="H40" s="94">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="I40" s="94">
+        <v>0.622</v>
+      </c>
+      <c r="J40" s="94">
+        <v>0.502</v>
+      </c>
+      <c r="K40" s="95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A41" s="88"/>
+      <c r="B41" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="94">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="D41" s="94">
+        <v>0.752</v>
+      </c>
+      <c r="E41" s="94">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="F41" s="94">
+        <v>0.629</v>
+      </c>
+      <c r="G41" s="94">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="H41" s="94">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="I41" s="94">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="J41" s="94">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K41" s="97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A42" s="88"/>
+      <c r="B42" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="94">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="D42" s="94">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="E42" s="94">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="F42" s="94">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="G42" s="94">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="H42" s="94">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="I42" s="94">
+        <v>0.96</v>
+      </c>
+      <c r="J42" s="94">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="K42" s="99" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A43" s="88"/>
+      <c r="B43" s="93" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="94">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="D43" s="94">
+        <v>0.82</v>
+      </c>
+      <c r="E43" s="94">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="F43" s="94">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="G43" s="94">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="H43" s="94">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="I43" s="94">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="J43" s="94">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="K43" s="95" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A44" s="88"/>
+      <c r="B44" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="94">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="D44" s="94">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="E44" s="94">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="F44" s="94">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="G44" s="94">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="H44" s="94">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="I44" s="94">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="J44" s="94">
+        <v>0.433</v>
+      </c>
+      <c r="K44" s="97" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A45" s="88"/>
+      <c r="B45" s="93" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="94">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="D45" s="94">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="E45" s="94">
+        <v>0.75</v>
+      </c>
+      <c r="F45" s="94">
+        <v>0.61</v>
+      </c>
+      <c r="G45" s="94">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="H45" s="94">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="I45" s="94">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="J45" s="94">
+        <v>0.623</v>
+      </c>
+      <c r="K45" s="95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="88"/>
+      <c r="B46" s="100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="101">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="D46" s="101">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="E46" s="101">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="F46" s="101">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="G46" s="101">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="H46" s="101">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="I46" s="101">
+        <v>0.73</v>
+      </c>
+      <c r="J46" s="101">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="K46" s="102" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="88"/>
+      <c r="B47" s="103" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="101">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="D47" s="101">
+        <v>0.76</v>
+      </c>
+      <c r="E47" s="101">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="F47" s="101">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="G47" s="101">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="H47" s="101">
+        <v>0.745</v>
+      </c>
+      <c r="I47" s="101">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="J47" s="101">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="K47" s="104" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C48" s="105">
+        <f t="shared" ref="C48:J48" si="3">AVERAGE(C40:C46)</f>
+        <v>0.84842857142857131</v>
+      </c>
+      <c r="D48" s="105">
+        <f t="shared" si="3"/>
+        <v>0.75985714285714268</v>
+      </c>
+      <c r="E48" s="105">
+        <f t="shared" si="3"/>
+        <v>0.82599999999999985</v>
+      </c>
+      <c r="F48" s="105">
+        <f t="shared" si="3"/>
+        <v>0.65171428571428558</v>
+      </c>
+      <c r="G48" s="105">
+        <f t="shared" si="3"/>
+        <v>0.83371428571428574</v>
+      </c>
+      <c r="H48" s="105">
+        <f t="shared" si="3"/>
+        <v>0.74542857142857144</v>
+      </c>
+      <c r="I48" s="105">
+        <f t="shared" si="3"/>
+        <v>0.78142857142857147</v>
+      </c>
+      <c r="J48" s="105">
+        <f t="shared" si="3"/>
+        <v>0.59499999999999997</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A14:A23"/>
-    <mergeCell ref="A26:A35"/>
-    <mergeCell ref="V5:V10"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
+  <mergeCells count="27">
+    <mergeCell ref="A38:A47"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="G38:J38"/>
     <mergeCell ref="V1:AE1"/>
     <mergeCell ref="X2:AE2"/>
     <mergeCell ref="X3:AA3"/>
@@ -5020,68 +7080,75 @@
     <mergeCell ref="O14:R14"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A14:A23"/>
+    <mergeCell ref="A26:A35"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="V5:V11"/>
   </mergeCells>
-  <conditionalFormatting sqref="X5:X10">
-    <cfRule type="expression" dxfId="43" priority="15">
+  <conditionalFormatting sqref="X5:X11">
+    <cfRule type="expression" dxfId="213" priority="15">
       <formula>X5=MIN($X$5:$X$10)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="16">
+    <cfRule type="expression" dxfId="212" priority="16">
       <formula>X5=MAX($X$5:$X$10)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y5:Y10">
-    <cfRule type="expression" dxfId="41" priority="13">
+  <conditionalFormatting sqref="Y5:Y11">
+    <cfRule type="expression" dxfId="211" priority="13">
       <formula>Y5=MIN($Y$5:$Y$10)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="14">
+    <cfRule type="expression" dxfId="210" priority="14">
       <formula>Y5=MAX($Y$5:$Y$10)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z5:Z10">
-    <cfRule type="expression" dxfId="39" priority="11">
+  <conditionalFormatting sqref="Z5:Z11">
+    <cfRule type="expression" dxfId="209" priority="11">
       <formula>Z5=MIN($Z$5:$Z$10)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="12">
+    <cfRule type="expression" dxfId="208" priority="12">
       <formula>Z5=MAX($Z$5:$Z$10)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA5:AA10">
-    <cfRule type="expression" dxfId="37" priority="9">
+  <conditionalFormatting sqref="AA5:AA11">
+    <cfRule type="expression" dxfId="207" priority="9">
       <formula>AA5=MIN($AA$5:$AA$10)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="10">
+    <cfRule type="expression" dxfId="206" priority="10">
       <formula>AA5=MAX($AA$5:$AA$10)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB5:AB10">
-    <cfRule type="expression" dxfId="35" priority="7">
+  <conditionalFormatting sqref="AB5:AB11">
+    <cfRule type="expression" dxfId="205" priority="7">
       <formula>AB5=MIN($AB$5:$AB$10)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="8">
+    <cfRule type="expression" dxfId="204" priority="8">
       <formula>AB5=MAX($AB$5:$AB$10)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC5:AC10">
-    <cfRule type="expression" dxfId="33" priority="5">
+  <conditionalFormatting sqref="AC5:AC11">
+    <cfRule type="expression" dxfId="203" priority="5">
       <formula>AC5=MIN($AC$5:$AC$10)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="6">
+    <cfRule type="expression" dxfId="202" priority="6">
       <formula>AC5=MAX($AC$5:$AC$10)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD5:AD10">
-    <cfRule type="expression" dxfId="31" priority="3">
+  <conditionalFormatting sqref="AD5:AD11">
+    <cfRule type="expression" dxfId="201" priority="3">
       <formula>AD5=MIN($AD$5:$AD$10)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="4">
+    <cfRule type="expression" dxfId="200" priority="4">
       <formula>AD5=MAX($AD$5:$AD$10)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE5:AE10">
-    <cfRule type="expression" dxfId="29" priority="1">
+  <conditionalFormatting sqref="AE5:AE11">
+    <cfRule type="expression" dxfId="199" priority="1">
       <formula>AE5=MIN($AE$5:$AE$10)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="2">
+    <cfRule type="expression" dxfId="198" priority="2">
       <formula>AE5=MAX($AE$5:$AE$10)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5092,10 +7159,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C321701D-DAE5-4418-8F92-EC61882D2B3B}">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5108,33 +7175,33 @@
     <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="71" t="s">
+      <c r="D2" s="70"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="74" t="s">
+      <c r="G2" s="70"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="75"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="74" t="s">
+      <c r="J2" s="73"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="75"/>
-      <c r="N2" s="76"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="74"/>
     </row>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
-      <c r="B3" s="70"/>
+      <c r="B3" s="80"/>
       <c r="C3" s="2" t="s">
         <v>34</v>
       </c>
@@ -5536,33 +7603,33 @@
     </row>
     <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="72"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="71" t="s">
+      <c r="D13" s="70"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="72"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="74" t="s">
+      <c r="G13" s="70"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="75"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="74" t="s">
+      <c r="J13" s="73"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="75"/>
-      <c r="N13" s="76"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="74"/>
     </row>
     <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="70"/>
+      <c r="B14" s="80"/>
       <c r="C14" s="2" t="s">
         <v>34</v>
       </c>
@@ -5965,33 +8032,33 @@
     </row>
     <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="69" t="s">
+      <c r="B24" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="71" t="s">
+      <c r="C24" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="72"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="71" t="s">
+      <c r="D24" s="70"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="72"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="74" t="s">
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="J24" s="75"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="74" t="s">
+      <c r="J24" s="73"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="M24" s="75"/>
-      <c r="N24" s="76"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="74"/>
     </row>
     <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="70"/>
+      <c r="B25" s="80"/>
       <c r="C25" s="2" t="s">
         <v>34</v>
       </c>
@@ -6338,7 +8405,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C33" s="23">
         <f>AVERAGE(C26:C32)</f>
         <v>0.88</v>
@@ -6388,134 +8455,473 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
+    <row r="34" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="35" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="70"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35" s="73"/>
+      <c r="H35" s="74"/>
+    </row>
+    <row r="36" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="80"/>
+      <c r="C36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B37" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="8">
+        <v>0.77</v>
+      </c>
+      <c r="D37" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="E37" s="8">
+        <v>0.23</v>
+      </c>
+      <c r="F37" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="G37" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="H37" s="8">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B38" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="11">
+        <v>0.79</v>
+      </c>
+      <c r="D38" s="11">
+        <v>0.12</v>
+      </c>
+      <c r="E38" s="11">
+        <v>0.21</v>
+      </c>
+      <c r="F38" s="11">
+        <v>0.82</v>
+      </c>
+      <c r="G38" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H38" s="11">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B39" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="11">
+        <v>0.96</v>
+      </c>
+      <c r="D39" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="E39" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="F39" s="11">
+        <v>0.92</v>
+      </c>
+      <c r="G39" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="H39" s="11">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B40" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="11">
+        <v>0.87</v>
+      </c>
+      <c r="D40" s="11">
+        <v>0.31</v>
+      </c>
+      <c r="E40" s="11">
+        <v>0.13</v>
+      </c>
+      <c r="F40" s="11">
+        <v>0.85</v>
+      </c>
+      <c r="G40" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="H40" s="11">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B41" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="11">
+        <v>0.61</v>
+      </c>
+      <c r="D41" s="11">
+        <v>0.27</v>
+      </c>
+      <c r="E41" s="11">
+        <v>0.39</v>
+      </c>
+      <c r="F41" s="11">
+        <v>0.66</v>
+      </c>
+      <c r="G41" s="11">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H41" s="11">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B42" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="11">
+        <v>0.69</v>
+      </c>
+      <c r="D42" s="11">
+        <v>0.11</v>
+      </c>
+      <c r="E42" s="11">
+        <v>0.31</v>
+      </c>
+      <c r="F42" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="G42" s="11">
+        <v>0.09</v>
+      </c>
+      <c r="H42" s="11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="16">
+        <v>0.94</v>
+      </c>
+      <c r="D43" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="E43" s="16">
+        <v>0.06</v>
+      </c>
+      <c r="F43" s="16">
+        <v>0.77</v>
+      </c>
+      <c r="G43" s="16">
+        <v>0.09</v>
+      </c>
+      <c r="H43" s="16">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="C44" s="23">
+        <f>AVERAGE(C37:C43)</f>
+        <v>0.80428571428571416</v>
+      </c>
+      <c r="D44" s="25">
+        <f t="shared" ref="D44:H44" si="3">AVERAGE(D37:D43)</f>
+        <v>0.14571428571428571</v>
+      </c>
+      <c r="E44" s="27">
+        <f t="shared" si="3"/>
+        <v>0.19571428571428573</v>
+      </c>
+      <c r="F44" s="23">
+        <f>AVERAGE(F37:F43)</f>
+        <v>0.76</v>
+      </c>
+      <c r="G44" s="25">
+        <f t="shared" si="3"/>
+        <v>0.14142857142857143</v>
+      </c>
+      <c r="H44" s="27">
+        <f t="shared" si="3"/>
+        <v>0.22714285714285715</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="18">
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:N13"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="F24:H24"/>
     <mergeCell ref="I24:K24"/>
     <mergeCell ref="L24:N24"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
   </mergeCells>
   <conditionalFormatting sqref="C4 F4 I4 L4 C15 F15 I15 L15 C26 F26 I26 L26">
-    <cfRule type="expression" dxfId="27" priority="547">
+    <cfRule type="expression" dxfId="181" priority="575">
       <formula>C4=MAX(C$6,#REF!,#REF!,C$17,#REF!,C$28,C$38,C$48,C$58)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="548">
+    <cfRule type="expression" dxfId="180" priority="576">
       <formula>C4=MIN(C$6,#REF!,#REF!,C$17,#REF!,C$28,C$38,C$48,C$58)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5 F5 I5 L5 C16 F16 I16 L16 C27 F27 I27 L27">
-    <cfRule type="expression" dxfId="25" priority="571">
+    <cfRule type="expression" dxfId="179" priority="599">
       <formula>C5=MAX(C$7,#REF!,#REF!,C$18,#REF!,C$29,C$39,C$49,C$59)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="572">
+    <cfRule type="expression" dxfId="178" priority="600">
       <formula>C5=MIN(C$7,#REF!,#REF!,C$18,#REF!,C$29,C$39,C$49,C$59)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6 F6 I6 L6 C17 F17 I17 L17 C28 F28 I28 L28">
-    <cfRule type="expression" dxfId="23" priority="595">
+    <cfRule type="expression" dxfId="177" priority="623">
       <formula>C6=MAX(C$8,#REF!,#REF!,C$19,#REF!,C$30,C$40,C$50,C$60)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="596">
+    <cfRule type="expression" dxfId="176" priority="624">
       <formula>C6=MIN(C$8,#REF!,#REF!,C$19,#REF!,C$30,C$40,C$50,C$60)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7 F7 I7 L7 C18 F18 I18 L18 C29 F29 I29 L29">
-    <cfRule type="expression" dxfId="21" priority="619">
+    <cfRule type="expression" dxfId="175" priority="647">
       <formula>C7=MAX(C$9,#REF!,#REF!,C$20,#REF!,C$31,C$41,C$51,C$61)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="620">
+    <cfRule type="expression" dxfId="174" priority="648">
       <formula>C7=MIN(C$9,#REF!,#REF!,C$20,#REF!,C$31,C$41,C$51,C$61)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8 F8 I8 L8 C19 F19 I19 L19 C30 F30 I30 L30">
-    <cfRule type="expression" dxfId="19" priority="643">
+    <cfRule type="expression" dxfId="173" priority="671">
       <formula>C8=MAX(C$10,#REF!,#REF!,C$21,#REF!,C$32,C$42,C$52,C$62)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="644">
+    <cfRule type="expression" dxfId="172" priority="672">
       <formula>C8=MIN(C$10,#REF!,#REF!,C$21,#REF!,C$32,C$42,C$52,C$62)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9 F9 I9 L9 C20 F20 I20 L20 C31 F31 I31 L31">
-    <cfRule type="expression" dxfId="17" priority="667">
+    <cfRule type="expression" dxfId="171" priority="695">
       <formula>C9=MAX(C$11,#REF!,#REF!,C$22,C$23,C$33,C$43,C$53,C$63)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="668">
+    <cfRule type="expression" dxfId="170" priority="696">
       <formula>C9=MIN(C$11,#REF!,#REF!,C$22,C$23,C$33,C$43,C$53,C$63)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10 F10 I10 L10 C21 F21 I21 L21 C32 F32 I32 L32">
-    <cfRule type="expression" dxfId="15" priority="691">
+    <cfRule type="expression" dxfId="169" priority="719">
       <formula>C10=MAX(C$12,#REF!,#REF!,#REF!,C$24,C$34,C$44,C$54,C$64)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="692">
+    <cfRule type="expression" dxfId="168" priority="720">
       <formula>C10=MIN(C$12,#REF!,#REF!,#REF!,C$24,C$34,C$44,C$54,C$64)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:E4 G4:H4 J4:K4 M4:N4 D15:E15 G15:H15 J15:K15 M15:N15 D26:E26 G26:H26 J26:K26 M26:N26">
-    <cfRule type="expression" dxfId="13" priority="715">
+    <cfRule type="expression" dxfId="167" priority="743">
       <formula>D4=MIN(D$6,#REF!,#REF!,D$17,#REF!,D$28,D$38,D$48,D$58)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="716">
+    <cfRule type="expression" dxfId="166" priority="744">
       <formula>D4=MAX(D$6,#REF!,#REF!,D$17,#REF!,D$28,D$38,D$48,D$58)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:E5 G5:H5 J5:K5 M5:N5 D16:E16 G16:H16 J16:K16 M16:N16 D27:E27 G27:H27 J27:K27 M27:N27">
-    <cfRule type="expression" dxfId="11" priority="739">
+    <cfRule type="expression" dxfId="165" priority="767">
       <formula>D5=MIN(D$7,#REF!,#REF!,D$18,#REF!,D$29,D$39,D$49,D$59)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="740">
+    <cfRule type="expression" dxfId="164" priority="768">
       <formula>D5=MAX(D$7,#REF!,#REF!,D$18,#REF!,D$29,D$39,D$49,D$59)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:E6 G6:H6 J6:K6 M6:N6 D17:E17 G17:H17 J17:K17 M17:N17 D28:E28 G28:H28 J28:K28 M28:N28">
-    <cfRule type="expression" dxfId="9" priority="763">
+    <cfRule type="expression" dxfId="163" priority="791">
       <formula>D6=MIN(D$8,#REF!,#REF!,D$19,#REF!,D$30,D$40,D$50,D$60)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="764">
+    <cfRule type="expression" dxfId="162" priority="792">
       <formula>D6=MAX(D$8,#REF!,#REF!,D$19,#REF!,D$30,D$40,D$50,D$60)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:E7 G7:H7 J7:K7 M7:N7 D18:E18 G18:H18 J18:K18 M18:N18 D29:E29 G29:H29 J29:K29 M29:N29">
-    <cfRule type="expression" dxfId="7" priority="787">
+    <cfRule type="expression" dxfId="161" priority="815">
       <formula>D7=MIN(D$9,#REF!,#REF!,D$20,#REF!,D$31,D$41,D$51,D$61)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="788">
+    <cfRule type="expression" dxfId="160" priority="816">
       <formula>D7=MAX(D$9,#REF!,#REF!,D$20,#REF!,D$31,D$41,D$51,D$61)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:E8 G8:H8 J8:K8 M8:N8 D19:E19 G19:H19 J19:K19 M19:N19 D30:E30 G30:H30 J30:K30 M30:N30">
-    <cfRule type="expression" dxfId="5" priority="811">
+    <cfRule type="expression" dxfId="159" priority="839">
       <formula>D8=MIN(D$10,#REF!,#REF!,D$21,#REF!,D$32,D$42,D$52,D$62)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="812">
+    <cfRule type="expression" dxfId="158" priority="840">
       <formula>D8=MAX(D$10,#REF!,#REF!,D$21,#REF!,D$32,D$42,D$52,D$62)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:E9 G9:H9 J9:K9 M9:N9 D20:E20 G20:H20 J20:K20 M20:N20 D31:E31 G31:H31 J31:K31 M31:N31">
-    <cfRule type="expression" dxfId="3" priority="835">
+    <cfRule type="expression" dxfId="157" priority="863">
       <formula>D9=MIN(D$11,#REF!,#REF!,D$22,D$23,D$33,D$43,D$53,D$63)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="836">
+    <cfRule type="expression" dxfId="156" priority="864">
       <formula>D9=MAX(D$11,#REF!,#REF!,D$22,D$23,D$33,D$43,D$53,D$63)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:E10 G10:H10 J10:K10 M10:N10 D21:E21 G21:H21 J21:K21 M21:N21 D32:E32 G32:H32 J32:K32 M32:N32">
-    <cfRule type="expression" dxfId="1" priority="859">
+    <cfRule type="expression" dxfId="155" priority="887">
       <formula>D10=MIN(D$12,#REF!,#REF!,#REF!,D$24,D$34,D$44,D$54,D$64)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="860">
+    <cfRule type="expression" dxfId="154" priority="888">
       <formula>D10=MAX(D$12,#REF!,#REF!,#REF!,D$24,D$34,D$44,D$54,D$64)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37 F37">
+    <cfRule type="expression" dxfId="153" priority="1">
+      <formula>C37=MAX(C$6,#REF!,#REF!,C$17,#REF!,C$28,C$38,C$48,C$58)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="152" priority="2">
+      <formula>C37=MIN(C$6,#REF!,#REF!,C$17,#REF!,C$28,C$38,C$48,C$58)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38 F38">
+    <cfRule type="expression" dxfId="151" priority="3">
+      <formula>C38=MAX(C$7,#REF!,#REF!,C$18,#REF!,C$29,C$39,C$49,C$59)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="4">
+      <formula>C38=MIN(C$7,#REF!,#REF!,C$18,#REF!,C$29,C$39,C$49,C$59)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39 F39">
+    <cfRule type="expression" dxfId="149" priority="5">
+      <formula>C39=MAX(C$8,#REF!,#REF!,C$19,#REF!,C$30,C$40,C$50,C$60)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="148" priority="6">
+      <formula>C39=MIN(C$8,#REF!,#REF!,C$19,#REF!,C$30,C$40,C$50,C$60)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40 F40">
+    <cfRule type="expression" dxfId="147" priority="7">
+      <formula>C40=MAX(C$9,#REF!,#REF!,C$20,#REF!,C$31,C$41,C$51,C$61)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="146" priority="8">
+      <formula>C40=MIN(C$9,#REF!,#REF!,C$20,#REF!,C$31,C$41,C$51,C$61)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41 F41">
+    <cfRule type="expression" dxfId="145" priority="9">
+      <formula>C41=MAX(C$10,#REF!,#REF!,C$21,#REF!,C$32,C$42,C$52,C$62)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="144" priority="10">
+      <formula>C41=MIN(C$10,#REF!,#REF!,C$21,#REF!,C$32,C$42,C$52,C$62)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42 F42">
+    <cfRule type="expression" dxfId="143" priority="11">
+      <formula>C42=MAX(C$11,#REF!,#REF!,C$22,C$23,C$33,C$43,C$53,C$63)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="142" priority="12">
+      <formula>C42=MIN(C$11,#REF!,#REF!,C$22,C$23,C$33,C$43,C$53,C$63)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43 F43">
+    <cfRule type="expression" dxfId="141" priority="13">
+      <formula>C43=MAX(C$12,#REF!,#REF!,#REF!,C$24,C$34,C$44,C$54,C$64)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="140" priority="14">
+      <formula>C43=MIN(C$12,#REF!,#REF!,#REF!,C$24,C$34,C$44,C$54,C$64)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37:E37 G37:H37">
+    <cfRule type="expression" dxfId="139" priority="15">
+      <formula>D37=MIN(D$6,#REF!,#REF!,D$17,#REF!,D$28,D$38,D$48,D$58)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="138" priority="16">
+      <formula>D37=MAX(D$6,#REF!,#REF!,D$17,#REF!,D$28,D$38,D$48,D$58)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:E38 G38:H38">
+    <cfRule type="expression" dxfId="137" priority="17">
+      <formula>D38=MIN(D$7,#REF!,#REF!,D$18,#REF!,D$29,D$39,D$49,D$59)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="136" priority="18">
+      <formula>D38=MAX(D$7,#REF!,#REF!,D$18,#REF!,D$29,D$39,D$49,D$59)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39:E39 G39:H39">
+    <cfRule type="expression" dxfId="135" priority="19">
+      <formula>D39=MIN(D$8,#REF!,#REF!,D$19,#REF!,D$30,D$40,D$50,D$60)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="20">
+      <formula>D39=MAX(D$8,#REF!,#REF!,D$19,#REF!,D$30,D$40,D$50,D$60)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:E40 G40:H40">
+    <cfRule type="expression" dxfId="133" priority="21">
+      <formula>D40=MIN(D$9,#REF!,#REF!,D$20,#REF!,D$31,D$41,D$51,D$61)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="22">
+      <formula>D40=MAX(D$9,#REF!,#REF!,D$20,#REF!,D$31,D$41,D$51,D$61)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:E41 G41:H41">
+    <cfRule type="expression" dxfId="131" priority="23">
+      <formula>D41=MIN(D$10,#REF!,#REF!,D$21,#REF!,D$32,D$42,D$52,D$62)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="24">
+      <formula>D41=MAX(D$10,#REF!,#REF!,D$21,#REF!,D$32,D$42,D$52,D$62)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42:E42 G42:H42">
+    <cfRule type="expression" dxfId="129" priority="25">
+      <formula>D42=MIN(D$11,#REF!,#REF!,D$22,D$23,D$33,D$43,D$53,D$63)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="128" priority="26">
+      <formula>D42=MAX(D$11,#REF!,#REF!,D$22,D$23,D$33,D$43,D$53,D$63)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43:E43 G43:H43">
+    <cfRule type="expression" dxfId="127" priority="27">
+      <formula>D43=MIN(D$12,#REF!,#REF!,#REF!,D$24,D$34,D$44,D$54,D$64)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="28">
+      <formula>D43=MAX(D$12,#REF!,#REF!,#REF!,D$24,D$34,D$44,D$54,D$64)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
